--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Comprar produto</t>
   </si>
@@ -66,7 +66,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>Bicicletaria confirma disponibilidade</t>
+    <t>Cliente realiza pedido</t>
   </si>
   <si>
     <t>X(1)</t>
@@ -78,58 +78,55 @@
     <t>X(2)</t>
   </si>
   <si>
+    <t>Bicicletaria entrega produto</t>
+  </si>
+  <si>
+    <t>X(3)</t>
+  </si>
+  <si>
+    <t>Bicicletaria finaliza pedido</t>
+  </si>
+  <si>
+    <t>X(4)</t>
+  </si>
+  <si>
+    <t>Solicitar serviço</t>
+  </si>
+  <si>
+    <t>Vender Serviço</t>
+  </si>
+  <si>
+    <t>Cliente solicita orçamento</t>
+  </si>
+  <si>
+    <t>Cliente aprova orçamento</t>
+  </si>
+  <si>
+    <t>Bicicletaria informa conclusão do serviço</t>
+  </si>
+  <si>
+    <t>Cliente retira a bicicleta</t>
+  </si>
+  <si>
+    <t>Bicicletaria finaliza Ordem de Serviço</t>
+  </si>
+  <si>
+    <t>X(5)</t>
+  </si>
+  <si>
     <t>FA</t>
   </si>
   <si>
-    <t>Produto não disponível em estoque</t>
-  </si>
-  <si>
-    <t>Solicitar serviço</t>
-  </si>
-  <si>
-    <t>Vender Serviço</t>
-  </si>
-  <si>
-    <t>Cliente solicita orçamento</t>
-  </si>
-  <si>
-    <t>Cliente aprova orçamento</t>
-  </si>
-  <si>
-    <t>Bicicletaria informa prazo da OS</t>
-  </si>
-  <si>
-    <t>X(3)</t>
-  </si>
-  <si>
-    <t>Bicicletaria informa conclusão do serviço</t>
-  </si>
-  <si>
-    <t>X(4)</t>
-  </si>
-  <si>
-    <t>Cliente retira a bicicleta</t>
-  </si>
-  <si>
-    <t>X(5)</t>
-  </si>
-  <si>
-    <t>Bicicletaria finaliza OS</t>
+    <t>Cliente cancela serviço</t>
+  </si>
+  <si>
+    <t>Cliente não retira bicicleta</t>
+  </si>
+  <si>
+    <t>Cliente volta insatisfeito</t>
   </si>
   <si>
     <t>X(6)</t>
-  </si>
-  <si>
-    <t>Cliente cancela serviço</t>
-  </si>
-  <si>
-    <t>Cliente não retira bicicleta</t>
-  </si>
-  <si>
-    <t>Cliente volta insatisfeito</t>
-  </si>
-  <si>
-    <t>X(7)</t>
   </si>
   <si>
     <t>Suprir negócio</t>
@@ -351,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -399,17 +396,11 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -424,8 +415,10 @@
     <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -756,11 +749,11 @@
       <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
@@ -784,169 +777,167 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="16">
         <v>4.0</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="19"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="26"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="9" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13" t="s">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C13" s="16">
         <v>1.0</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16" t="s">
+      <c r="D13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="27"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="29"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="16">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="29"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="31"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="29"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="16">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>28</v>
@@ -955,117 +946,117 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I16" s="18"/>
-      <c r="J16" s="29"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="16">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="29"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="29"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="20"/>
       <c r="B19" s="15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C19" s="16">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="29"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="16">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="J20" s="29"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="16">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1115,8 +1106,8 @@
       <c r="J25" s="12"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="33" t="s">
-        <v>39</v>
+      <c r="A26" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>13</v>
@@ -1125,7 +1116,7 @@
         <v>1.0</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16" t="s">
@@ -1134,7 +1125,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="27"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="20"/>
@@ -1143,7 +1134,7 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>17</v>
@@ -1152,7 +1143,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="27"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="20"/>
@@ -1161,16 +1152,16 @@
         <v>3.0</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="34"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="20"/>
@@ -1179,16 +1170,16 @@
         <v>4.0</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="F29" s="32"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="20"/>
@@ -1197,16 +1188,16 @@
         <v>5.0</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="16"/>
-      <c r="F30" s="34"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
+        <v>23</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="20"/>
@@ -1215,34 +1206,36 @@
         <v>6.0</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="34"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="20"/>
-      <c r="B32" s="35"/>
+      <c r="B32" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="C32" s="16">
         <v>7.0</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+        <v>45</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="27"/>
+        <v>36</v>
+      </c>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="12"/>
@@ -1251,16 +1244,16 @@
         <v>8.0</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="16"/>
-      <c r="F33" s="34"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="27"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="27"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2236,22 +2229,22 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A12:A21"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:B25"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miDrUcQlLiPFnQYy2AZzfmIlgqwpw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgeJpEpeaFbVWDyoYsjjiECcCChqA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>Comprar produto</t>
   </si>
@@ -78,34 +78,28 @@
     <t>X(2)</t>
   </si>
   <si>
-    <t>Bicicletaria entrega produto</t>
+    <t>Solicitar serviço</t>
+  </si>
+  <si>
+    <t>Vender Serviço</t>
+  </si>
+  <si>
+    <t>Cliente solicita orçamento</t>
+  </si>
+  <si>
+    <t>Cliente aprova orçamento</t>
+  </si>
+  <si>
+    <t>Bicicletaria informa conclusão do serviço</t>
   </si>
   <si>
     <t>X(3)</t>
   </si>
   <si>
-    <t>Bicicletaria finaliza pedido</t>
+    <t>Cliente retira a bicicleta</t>
   </si>
   <si>
     <t>X(4)</t>
-  </si>
-  <si>
-    <t>Solicitar serviço</t>
-  </si>
-  <si>
-    <t>Vender Serviço</t>
-  </si>
-  <si>
-    <t>Cliente solicita orçamento</t>
-  </si>
-  <si>
-    <t>Cliente aprova orçamento</t>
-  </si>
-  <si>
-    <t>Bicicletaria informa conclusão do serviço</t>
-  </si>
-  <si>
-    <t>Cliente retira a bicicleta</t>
   </si>
   <si>
     <t>Bicicletaria finaliza Ordem de Serviço</t>
@@ -759,8 +753,8 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="16">
         <v>3.0</v>
       </c>
@@ -777,141 +771,141 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="B11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="12"/>
+      <c r="E12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="16">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="25"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="16">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="27"/>
     </row>
@@ -919,16 +913,16 @@
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="16">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="27"/>
@@ -937,34 +931,36 @@
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="16">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="G16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="27"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="16">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="27"/>
@@ -973,183 +969,181 @@
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="16">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
       <c r="J18" s="27"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="16">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="J19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="J20" s="27"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="A21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="16" t="s">
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="27"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="21" t="s">
+      <c r="B24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="12"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="16">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="25"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="16">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F27" s="32"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="16">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>41</v>
@@ -1157,7 +1151,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="32"/>
       <c r="G28" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
@@ -1167,13 +1161,13 @@
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="16">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="16"/>
@@ -1183,78 +1177,44 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="C30" s="16">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="G30" s="16"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="I30" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="J30" s="25"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="16">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="E31" s="16"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="25"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="25"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="25"/>
-    </row>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
     <row r="36" ht="15.75" customHeight="1"/>
@@ -2218,8 +2178,6 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="A1:J1"/>
@@ -2229,28 +2187,28 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
